--- a/notebooks/df_cashflows.xlsx
+++ b/notebooks/df_cashflows.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,27 +455,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>fixed_rate</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>leg</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>value_dt</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>rateset_dt</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>contract_no</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>type</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>principal</t>
         </is>
       </c>
     </row>
@@ -486,28 +496,34 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F2" t="n">
         <v>-1</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>45379</v>
-      </c>
       <c r="G2" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>45385</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="3">
@@ -517,28 +533,34 @@
       <c r="B3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E3" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F3" t="n">
         <v>-1</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>45744</v>
-      </c>
       <c r="G3" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>45750</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="4">
@@ -548,28 +570,34 @@
       <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E4" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F4" t="n">
         <v>-1</v>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>46111</v>
-      </c>
       <c r="G4" s="2" t="n">
-        <v>45750</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>46115</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="5">
@@ -579,28 +607,34 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E5" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F5" t="n">
         <v>-1</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>46475</v>
-      </c>
       <c r="G5" s="2" t="n">
-        <v>46115</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>46482</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="6">
@@ -610,28 +644,34 @@
       <c r="B6" t="n">
         <v>5</v>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E6" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F6" t="n">
         <v>-1</v>
       </c>
-      <c r="F6" s="2" t="n">
-        <v>46840</v>
-      </c>
       <c r="G6" s="2" t="n">
-        <v>46482</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>46846</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="7">
@@ -641,28 +681,34 @@
       <c r="B7" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E7" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F7" t="n">
         <v>-1</v>
       </c>
-      <c r="F7" s="2" t="n">
-        <v>47205</v>
-      </c>
       <c r="G7" s="2" t="n">
-        <v>46846</v>
-      </c>
-      <c r="H7" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>47211</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="8">
@@ -672,28 +718,34 @@
       <c r="B8" t="n">
         <v>7</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E8" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F8" t="n">
         <v>-1</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>47570</v>
-      </c>
       <c r="G8" s="2" t="n">
-        <v>47211</v>
-      </c>
-      <c r="H8" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>47576</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="9">
@@ -703,28 +755,34 @@
       <c r="B9" t="n">
         <v>8</v>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E9" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F9" t="n">
         <v>-1</v>
       </c>
-      <c r="F9" s="2" t="n">
-        <v>47935</v>
-      </c>
       <c r="G9" s="2" t="n">
-        <v>47576</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>47941</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="10">
@@ -734,28 +792,34 @@
       <c r="B10" t="n">
         <v>9</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E10" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F10" t="n">
         <v>-1</v>
       </c>
-      <c r="F10" s="2" t="n">
-        <v>48302</v>
-      </c>
       <c r="G10" s="2" t="n">
-        <v>47941</v>
-      </c>
-      <c r="H10" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>48309</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="11">
@@ -765,39 +829,45 @@
       <c r="B11" t="n">
         <v>10</v>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>-76225</v>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>fixed</t>
         </is>
       </c>
       <c r="E11" t="n">
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F11" t="n">
         <v>-1</v>
       </c>
-      <c r="F11" s="2" t="n">
-        <v>48666</v>
-      </c>
       <c r="G11" s="2" t="n">
-        <v>48309</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>48673</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>1248451</v>
+        <v>-76225</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -805,298 +875,795 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>45379</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+        <v>0.3049016764326287</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>49037</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1248451</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>45744</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" t="n">
         <v>2</v>
       </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1248451</v>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>46111</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45202</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B15" t="n">
         <v>3</v>
       </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1248451</v>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="n">
-        <v>46475</v>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B16" t="n">
         <v>4</v>
       </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1248451</v>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>46840</v>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
         <v>5</v>
       </c>
-      <c r="B17" t="n">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1248451</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>47205</v>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
         <v>6</v>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1248451</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="2" t="n">
-        <v>47570</v>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>46115</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45933</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B19" t="n">
         <v>7</v>
       </c>
-      <c r="B19" t="n">
-        <v>8</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1248451</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>47935</v>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>46300</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>46115</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="B20" t="n">
-        <v>9</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1248451</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>48302</v>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>46482</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>46300</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>25000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B21" t="n">
         <v>9</v>
       </c>
-      <c r="B21" t="n">
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>46664</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>46482</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="n">
         <v>10</v>
       </c>
-      <c r="C21" t="n">
-        <v>1248451</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>fixed</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>48666</v>
-      </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>10002</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>46846</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>46664</v>
+      </c>
+      <c r="I22" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>47029</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>46846</v>
+      </c>
+      <c r="I23" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>47211</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>47029</v>
+      </c>
+      <c r="I24" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>47394</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>47211</v>
+      </c>
+      <c r="I25" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B26" t="n">
+        <v>14</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>47576</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>47394</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B27" t="n">
+        <v>15</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>47759</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>47576</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B28" t="n">
+        <v>16</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>47941</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>47759</v>
+      </c>
+      <c r="I28" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B29" t="n">
+        <v>17</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>48124</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>47941</v>
+      </c>
+      <c r="I29" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>48309</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>48124</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>48491</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>48309</v>
+      </c>
+      <c r="I31" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>48673</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>48491</v>
+      </c>
+      <c r="I32" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B33" t="n">
+        <v>21</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>48855</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>48673</v>
+      </c>
+      <c r="I33" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B34" t="n">
+        <v>22</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>float</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>49037</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>48855</v>
+      </c>
+      <c r="I34" t="n">
+        <v>10001</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>swap</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>25000000</v>
       </c>
     </row>
   </sheetData>
